--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnfsf13b-Tnfrsf13b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnfsf13b-Tnfrsf13b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.429365</v>
+        <v>1.643401666666666</v>
       </c>
       <c r="H2">
-        <v>4.288094999999999</v>
+        <v>4.930204999999999</v>
       </c>
       <c r="I2">
-        <v>0.3278441551491149</v>
+        <v>0.6433537405875911</v>
       </c>
       <c r="J2">
-        <v>0.3278441551491149</v>
+        <v>0.6433537405875911</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.348720333333333</v>
+        <v>0.2347256666666667</v>
       </c>
       <c r="N2">
-        <v>4.046161</v>
+        <v>0.7041770000000001</v>
       </c>
       <c r="O2">
-        <v>0.09650479089298154</v>
+        <v>0.02963901389354162</v>
       </c>
       <c r="P2">
-        <v>0.09650479089298154</v>
+        <v>0.02963901389354162</v>
       </c>
       <c r="Q2">
-        <v>1.927813639255</v>
+        <v>0.3857485518094445</v>
       </c>
       <c r="R2">
-        <v>17.350322753295</v>
+        <v>3.471736966285</v>
       </c>
       <c r="S2">
-        <v>0.03163853163815154</v>
+        <v>0.01906837045573759</v>
       </c>
       <c r="T2">
-        <v>0.03163853163815154</v>
+        <v>0.01906837045573759</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.429365</v>
+        <v>1.643401666666666</v>
       </c>
       <c r="H3">
-        <v>4.288094999999999</v>
+        <v>4.930204999999999</v>
       </c>
       <c r="I3">
-        <v>0.3278441551491149</v>
+        <v>0.6433537405875911</v>
       </c>
       <c r="J3">
-        <v>0.3278441551491149</v>
+        <v>0.6433537405875911</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,28 +614,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.2347256666666667</v>
+        <v>0.035534</v>
       </c>
       <c r="N3">
-        <v>0.7041770000000001</v>
+        <v>0.106602</v>
       </c>
       <c r="O3">
-        <v>0.01679529166947313</v>
+        <v>0.004486909057068498</v>
       </c>
       <c r="P3">
-        <v>0.01679529166947313</v>
+        <v>0.004486909057068498</v>
       </c>
       <c r="Q3">
-        <v>0.335508652535</v>
+        <v>0.05839663482333333</v>
       </c>
       <c r="R3">
-        <v>3.019577872815</v>
+        <v>0.5255697134099999</v>
       </c>
       <c r="S3">
-        <v>0.005506238207861386</v>
+        <v>0.00288666972554136</v>
       </c>
       <c r="T3">
-        <v>0.005506238207861386</v>
+        <v>0.00288666972554136</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,75 +643,75 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.429365</v>
+        <v>1.643401666666666</v>
       </c>
       <c r="H4">
-        <v>4.288094999999999</v>
+        <v>4.930204999999999</v>
       </c>
       <c r="I4">
-        <v>0.3278441551491149</v>
+        <v>0.6433537405875911</v>
       </c>
       <c r="J4">
-        <v>0.3278441551491149</v>
+        <v>0.6433537405875911</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.035534</v>
+        <v>7.649223333333333</v>
       </c>
       <c r="N4">
-        <v>0.106602</v>
+        <v>22.94767</v>
       </c>
       <c r="O4">
-        <v>0.002542559161331845</v>
+        <v>0.9658740770493899</v>
       </c>
       <c r="P4">
-        <v>0.002542559161331845</v>
+        <v>0.9658740770493899</v>
       </c>
       <c r="Q4">
-        <v>0.05079105590999999</v>
+        <v>12.57074637470555</v>
       </c>
       <c r="R4">
-        <v>0.4571195031899999</v>
+        <v>113.13671737235</v>
       </c>
       <c r="S4">
-        <v>0.0008335631601634809</v>
+        <v>0.6213987004063122</v>
       </c>
       <c r="T4">
-        <v>0.0008335631601634808</v>
+        <v>0.6213987004063122</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,46 +720,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.429365</v>
+        <v>0.08257399999999999</v>
       </c>
       <c r="H5">
-        <v>4.288094999999999</v>
+        <v>0.247722</v>
       </c>
       <c r="I5">
-        <v>0.3278441551491149</v>
+        <v>0.03232581106177922</v>
       </c>
       <c r="J5">
-        <v>0.3278441551491149</v>
+        <v>0.03232581106177923</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>12.35670266666667</v>
+        <v>0.2347256666666667</v>
       </c>
       <c r="N5">
-        <v>37.070108</v>
+        <v>0.7041770000000001</v>
       </c>
       <c r="O5">
-        <v>0.8841573582762134</v>
+        <v>0.02963901389354162</v>
       </c>
       <c r="P5">
-        <v>0.8841573582762134</v>
+        <v>0.02963901389354162</v>
       </c>
       <c r="Q5">
-        <v>17.66223830713999</v>
+        <v>0.01938223719933333</v>
       </c>
       <c r="R5">
-        <v>158.96014476426</v>
+        <v>0.174440134794</v>
       </c>
       <c r="S5">
-        <v>0.2898658221429385</v>
+        <v>0.0009581051631800759</v>
       </c>
       <c r="T5">
-        <v>0.2898658221429385</v>
+        <v>0.0009581051631800761</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +767,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.643401666666667</v>
+        <v>0.08257399999999999</v>
       </c>
       <c r="H6">
-        <v>4.930205</v>
+        <v>0.247722</v>
       </c>
       <c r="I6">
-        <v>0.3769363535408946</v>
+        <v>0.03232581106177922</v>
       </c>
       <c r="J6">
-        <v>0.3769363535408946</v>
+        <v>0.03232581106177923</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +800,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.348720333333333</v>
+        <v>0.035534</v>
       </c>
       <c r="N6">
-        <v>4.046161</v>
+        <v>0.106602</v>
       </c>
       <c r="O6">
-        <v>0.09650479089298154</v>
+        <v>0.004486909057068498</v>
       </c>
       <c r="P6">
-        <v>0.09650479089298154</v>
+        <v>0.004486909057068498</v>
       </c>
       <c r="Q6">
-        <v>2.216489243667222</v>
+        <v>0.002934184516</v>
       </c>
       <c r="R6">
-        <v>19.948403193005</v>
+        <v>0.026407660644</v>
       </c>
       <c r="S6">
-        <v>0.036376163978427</v>
+        <v>0.0001450429744301823</v>
       </c>
       <c r="T6">
-        <v>0.036376163978427</v>
+        <v>0.0001450429744301823</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,75 +829,75 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.08257399999999999</v>
+      </c>
+      <c r="H7">
+        <v>0.247722</v>
+      </c>
+      <c r="I7">
+        <v>0.03232581106177922</v>
+      </c>
+      <c r="J7">
+        <v>0.03232581106177923</v>
+      </c>
+      <c r="K7">
         <v>3</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.643401666666667</v>
-      </c>
-      <c r="H7">
-        <v>4.930205</v>
-      </c>
-      <c r="I7">
-        <v>0.3769363535408946</v>
-      </c>
-      <c r="J7">
-        <v>0.3769363535408946</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2347256666666667</v>
+        <v>7.649223333333333</v>
       </c>
       <c r="N7">
-        <v>0.7041770000000001</v>
+        <v>22.94767</v>
       </c>
       <c r="O7">
-        <v>0.01679529166947313</v>
+        <v>0.9658740770493899</v>
       </c>
       <c r="P7">
-        <v>0.01679529166947313</v>
+        <v>0.9658740770493899</v>
       </c>
       <c r="Q7">
-        <v>0.3857485518094445</v>
+        <v>0.6316269675266666</v>
       </c>
       <c r="R7">
-        <v>3.471736966285</v>
+        <v>5.684642707739999</v>
       </c>
       <c r="S7">
-        <v>0.006330755998546966</v>
+        <v>0.03122266292416897</v>
       </c>
       <c r="T7">
-        <v>0.006330755998546966</v>
+        <v>0.03122266292416897</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.643401666666667</v>
+        <v>0.8284536666666668</v>
       </c>
       <c r="H8">
-        <v>4.930205</v>
+        <v>2.485361</v>
       </c>
       <c r="I8">
-        <v>0.3769363535408946</v>
+        <v>0.3243204483506297</v>
       </c>
       <c r="J8">
-        <v>0.3769363535408946</v>
+        <v>0.3243204483506297</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -927,42 +924,42 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.035534</v>
+        <v>0.2347256666666667</v>
       </c>
       <c r="N8">
-        <v>0.106602</v>
+        <v>0.7041770000000001</v>
       </c>
       <c r="O8">
-        <v>0.002542559161331845</v>
+        <v>0.02963901389354162</v>
       </c>
       <c r="P8">
-        <v>0.002542559161331845</v>
+        <v>0.02963901389354162</v>
       </c>
       <c r="Q8">
-        <v>0.05839663482333333</v>
+        <v>0.1944593392107778</v>
       </c>
       <c r="R8">
-        <v>0.52556971341</v>
+        <v>1.750134052897</v>
       </c>
       <c r="S8">
-        <v>0.0009583829789344209</v>
+        <v>0.009612538274623961</v>
       </c>
       <c r="T8">
-        <v>0.0009583829789344207</v>
+        <v>0.009612538274623963</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +968,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.643401666666667</v>
+        <v>0.8284536666666668</v>
       </c>
       <c r="H9">
-        <v>4.930205</v>
+        <v>2.485361</v>
       </c>
       <c r="I9">
-        <v>0.3769363535408946</v>
+        <v>0.3243204483506297</v>
       </c>
       <c r="J9">
-        <v>0.3769363535408946</v>
+        <v>0.3243204483506297</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>12.35670266666667</v>
+        <v>0.035534</v>
       </c>
       <c r="N9">
-        <v>37.070108</v>
+        <v>0.106602</v>
       </c>
       <c r="O9">
-        <v>0.8841573582762134</v>
+        <v>0.004486909057068498</v>
       </c>
       <c r="P9">
-        <v>0.8841573582762134</v>
+        <v>0.004486909057068498</v>
       </c>
       <c r="Q9">
-        <v>20.30702575690444</v>
+        <v>0.02943827259133334</v>
       </c>
       <c r="R9">
-        <v>182.76323181214</v>
+        <v>0.264944453322</v>
       </c>
       <c r="S9">
-        <v>0.3332710505849862</v>
+        <v>0.001455196357096956</v>
       </c>
       <c r="T9">
-        <v>0.3332710505849862</v>
+        <v>0.001455196357096957</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,495 +1015,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.03065933333333333</v>
+        <v>0.8284536666666668</v>
       </c>
       <c r="H10">
-        <v>0.091978</v>
+        <v>2.485361</v>
       </c>
       <c r="I10">
-        <v>0.00703213191459268</v>
+        <v>0.3243204483506297</v>
       </c>
       <c r="J10">
-        <v>0.007032131914592681</v>
+        <v>0.3243204483506297</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.348720333333333</v>
+        <v>7.649223333333333</v>
       </c>
       <c r="N10">
-        <v>4.046161</v>
+        <v>22.94767</v>
       </c>
       <c r="O10">
-        <v>0.09650479089298154</v>
+        <v>0.9658740770493899</v>
       </c>
       <c r="P10">
-        <v>0.09650479089298154</v>
+        <v>0.9658740770493899</v>
       </c>
       <c r="Q10">
-        <v>0.04135086627311111</v>
+        <v>6.337027117652222</v>
       </c>
       <c r="R10">
-        <v>0.372157796458</v>
+        <v>57.03324405887</v>
       </c>
       <c r="S10">
-        <v>0.0006786344199496285</v>
+        <v>0.3132527137189088</v>
       </c>
       <c r="T10">
-        <v>0.0006786344199496286</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.03065933333333333</v>
-      </c>
-      <c r="H11">
-        <v>0.091978</v>
-      </c>
-      <c r="I11">
-        <v>0.00703213191459268</v>
-      </c>
-      <c r="J11">
-        <v>0.007032131914592681</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.2347256666666667</v>
-      </c>
-      <c r="N11">
-        <v>0.7041770000000001</v>
-      </c>
-      <c r="O11">
-        <v>0.01679529166947313</v>
-      </c>
-      <c r="P11">
-        <v>0.01679529166947313</v>
-      </c>
-      <c r="Q11">
-        <v>0.007196532456222223</v>
-      </c>
-      <c r="R11">
-        <v>0.06476879210600001</v>
-      </c>
-      <c r="S11">
-        <v>0.0001181067065637946</v>
-      </c>
-      <c r="T11">
-        <v>0.0001181067065637946</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.03065933333333333</v>
-      </c>
-      <c r="H12">
-        <v>0.091978</v>
-      </c>
-      <c r="I12">
-        <v>0.00703213191459268</v>
-      </c>
-      <c r="J12">
-        <v>0.007032131914592681</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.035534</v>
-      </c>
-      <c r="N12">
-        <v>0.106602</v>
-      </c>
-      <c r="O12">
-        <v>0.002542559161331845</v>
-      </c>
-      <c r="P12">
-        <v>0.002542559161331845</v>
-      </c>
-      <c r="Q12">
-        <v>0.001089448750666667</v>
-      </c>
-      <c r="R12">
-        <v>0.009805038756000001</v>
-      </c>
-      <c r="S12">
-        <v>1.787961142314167E-05</v>
-      </c>
-      <c r="T12">
-        <v>1.787961142314167E-05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.03065933333333333</v>
-      </c>
-      <c r="H13">
-        <v>0.091978</v>
-      </c>
-      <c r="I13">
-        <v>0.00703213191459268</v>
-      </c>
-      <c r="J13">
-        <v>0.007032131914592681</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>12.35670266666667</v>
-      </c>
-      <c r="N13">
-        <v>37.070108</v>
-      </c>
-      <c r="O13">
-        <v>0.8841573582762134</v>
-      </c>
-      <c r="P13">
-        <v>0.8841573582762134</v>
-      </c>
-      <c r="Q13">
-        <v>0.3788482659582222</v>
-      </c>
-      <c r="R13">
-        <v>3.409634393624</v>
-      </c>
-      <c r="S13">
-        <v>0.006217511176656114</v>
-      </c>
-      <c r="T13">
-        <v>0.006217511176656115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1.256465666666666</v>
-      </c>
-      <c r="H14">
-        <v>3.769397</v>
-      </c>
-      <c r="I14">
-        <v>0.2881873593953978</v>
-      </c>
-      <c r="J14">
-        <v>0.2881873593953979</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>1.348720333333333</v>
-      </c>
-      <c r="N14">
-        <v>4.046161</v>
-      </c>
-      <c r="O14">
-        <v>0.09650479089298154</v>
-      </c>
-      <c r="P14">
-        <v>0.09650479089298154</v>
-      </c>
-      <c r="Q14">
-        <v>1.694620792768555</v>
-      </c>
-      <c r="R14">
-        <v>15.251587134917</v>
-      </c>
-      <c r="S14">
-        <v>0.02781146085645338</v>
-      </c>
-      <c r="T14">
-        <v>0.02781146085645339</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1.256465666666666</v>
-      </c>
-      <c r="H15">
-        <v>3.769397</v>
-      </c>
-      <c r="I15">
-        <v>0.2881873593953978</v>
-      </c>
-      <c r="J15">
-        <v>0.2881873593953979</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M15">
-        <v>0.2347256666666667</v>
-      </c>
-      <c r="N15">
-        <v>0.7041770000000001</v>
-      </c>
-      <c r="O15">
-        <v>0.01679529166947313</v>
-      </c>
-      <c r="P15">
-        <v>0.01679529166947313</v>
-      </c>
-      <c r="Q15">
-        <v>0.2949247412521111</v>
-      </c>
-      <c r="R15">
-        <v>2.654322671269</v>
-      </c>
-      <c r="S15">
-        <v>0.004840190756500984</v>
-      </c>
-      <c r="T15">
-        <v>0.004840190756500985</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.256465666666666</v>
-      </c>
-      <c r="H16">
-        <v>3.769397</v>
-      </c>
-      <c r="I16">
-        <v>0.2881873593953978</v>
-      </c>
-      <c r="J16">
-        <v>0.2881873593953979</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.035534</v>
-      </c>
-      <c r="N16">
-        <v>0.106602</v>
-      </c>
-      <c r="O16">
-        <v>0.002542559161331845</v>
-      </c>
-      <c r="P16">
-        <v>0.002542559161331845</v>
-      </c>
-      <c r="Q16">
-        <v>0.04464725099933333</v>
-      </c>
-      <c r="R16">
-        <v>0.401825258994</v>
-      </c>
-      <c r="S16">
-        <v>0.0007327334108108017</v>
-      </c>
-      <c r="T16">
-        <v>0.0007327334108108017</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1.256465666666666</v>
-      </c>
-      <c r="H17">
-        <v>3.769397</v>
-      </c>
-      <c r="I17">
-        <v>0.2881873593953978</v>
-      </c>
-      <c r="J17">
-        <v>0.2881873593953979</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>12.35670266666667</v>
-      </c>
-      <c r="N17">
-        <v>37.070108</v>
-      </c>
-      <c r="O17">
-        <v>0.8841573582762134</v>
-      </c>
-      <c r="P17">
-        <v>0.8841573582762134</v>
-      </c>
-      <c r="Q17">
-        <v>15.52577265387511</v>
-      </c>
-      <c r="R17">
-        <v>139.731953884876</v>
-      </c>
-      <c r="S17">
-        <v>0.2548029743716326</v>
-      </c>
-      <c r="T17">
-        <v>0.2548029743716327</v>
+        <v>0.3132527137189088</v>
       </c>
     </row>
   </sheetData>
